--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail13 Features.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2484,29 +2484,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2527,115 +2525,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2652,72 +2640,66 @@
         <v>1.437798193478232e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1011519830654365</v>
+        <v>7.457327822175482e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.6338996064260831</v>
+        <v>2.945123879677123e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.457327822175482e-07</v>
+        <v>0.03484975469419635</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.945123879677123e-06</v>
+        <v>0.321692734293071</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03484975469419635</v>
+        <v>0.1044654616196573</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.321692734293071</v>
+        <v>1.672784796785959</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1044654616196573</v>
+        <v>1.555031687571567</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.600153870530066</v>
+        <v>4.163465126302789</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.555031687571567</v>
+        <v>5.293974427188297e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.163465126302789</v>
+        <v>37638782.92300946</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.293974427188297e-15</v>
+        <v>2.949840489401275e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>37638782.92300946</v>
+        <v>7.499856997285994</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.949840489401275e-06</v>
+        <v>0.0001439169125987195</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.499856997285994</v>
+        <v>7.928864908159505</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001439169125987195</v>
+        <v>1.587213770383751</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.928864908159505</v>
+        <v>0.009047609970143235</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.587213770383751</v>
+        <v>3.071752980362459</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009047609970143235</v>
+        <v>0.9445127481407886</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.071752980362459</v>
+        <v>1.851345960910567</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9445127481407886</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.851345960910567</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1661613214658237</v>
       </c>
     </row>
@@ -2732,72 +2714,66 @@
         <v>1.374934460889734e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1447463791731229</v>
+        <v>5.073674751277172e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.237416800617317</v>
+        <v>2.948012412081993e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.073674751277172e-07</v>
+        <v>0.007373948846860878</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.948012412081993e-06</v>
+        <v>0.25272632040176</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.007373948846860878</v>
+        <v>0.06377999689114365</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.25272632040176</v>
+        <v>1.671656714095488</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06377999689114365</v>
+        <v>1.517634703544536</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.595044669174899</v>
+        <v>4.054829456154255</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.517634703544536</v>
+        <v>5.581443286529588e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.054829456154255</v>
+        <v>34482636.15500078</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.581443286529588e-15</v>
+        <v>3.19244034885286e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>34482636.15500078</v>
+        <v>6.636627397803522</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.19244034885286e-06</v>
+        <v>0.0001380568039367235</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.636627397803522</v>
+        <v>9.58881121884129</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001380568039367235</v>
+        <v>1.203811941209688</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.58881121884129</v>
+        <v>0.01269367433653634</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.203811941209688</v>
+        <v>2.966608937302353</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01269367433653634</v>
+        <v>0.9453339368871257</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.966608937302353</v>
+        <v>1.857650957345989</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9453339368871257</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.857650957345989</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1738786333733898</v>
       </c>
     </row>
@@ -2812,72 +2788,66 @@
         <v>1.380287468976511e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1426070044639716</v>
+        <v>4.477595043105386e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.248175647859538</v>
+        <v>2.947483694775784e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.477595043105386e-07</v>
+        <v>-0.01379921071588886</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.947483694775784e-06</v>
+        <v>0.1853596327194985</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01379921071588886</v>
+        <v>0.03446103221901332</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1853596327194985</v>
+        <v>1.64887509382218</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03446103221901332</v>
+        <v>1.503892909380012</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.569565620136208</v>
+        <v>3.996511819689681</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.503892909380012</v>
+        <v>5.745522083341679e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.996511819689681</v>
+        <v>33780631.3341194</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.745522083341679e-15</v>
+        <v>3.225067869948612e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>33780631.3341194</v>
+        <v>6.556393666904174</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.225067869948612e-06</v>
+        <v>0.0001318329976733413</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.556393666904174</v>
+        <v>9.713054692071346</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001318329976733413</v>
+        <v>1.120429835799512</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.713054692071346</v>
+        <v>0.01243757737899703</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.120429835799512</v>
+        <v>2.834817308194687</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01243757737899703</v>
+        <v>0.9442216994092629</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.834817308194687</v>
+        <v>1.812150174266287</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9442216994092629</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.812150174266287</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1865169681365946</v>
       </c>
     </row>
@@ -2892,72 +2862,66 @@
         <v>1.401646071054367e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1574253357447993</v>
+        <v>4.477595043105386e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.279690964523027</v>
+        <v>2.944408279214747e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.477595043105386e-07</v>
+        <v>-0.02937745674441561</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.944408279214747e-06</v>
+        <v>0.1269059208174143</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02937745674441561</v>
+        <v>0.01692414693215351</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1269059208174143</v>
+        <v>1.610024830122103</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01692414693215351</v>
+        <v>1.485889751766662</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.525985039203346</v>
+        <v>3.926245389393852</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.485889751766662</v>
+        <v>5.953012889277735e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.926245389393852</v>
+        <v>31599305.71642546</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.953012889277735e-15</v>
+        <v>3.382551710285005e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>31599305.71642546</v>
+        <v>5.944179342989605</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.382551710285005e-06</v>
+        <v>0.0001288276943927491</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.944179342989605</v>
+        <v>8.185101450362843</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001288276943927491</v>
+        <v>1.233606022677072</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.185101450362843</v>
+        <v>0.008630925495324484</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.233606022677072</v>
+        <v>3.024691374675591</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008630925495324484</v>
+        <v>0.9416607476567023</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.024691374675591</v>
+        <v>1.865324642072095</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9416607476567023</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.865324642072095</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1810521009833173</v>
       </c>
     </row>
@@ -3334,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.374221586491043</v>
+        <v>1.343281438581412</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.465751668356658</v>
@@ -3423,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.383602906796752</v>
+        <v>1.352066558687249</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.536009716411198</v>
@@ -3512,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.391056576067242</v>
+        <v>1.359312971894372</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.544408001080495</v>
@@ -3601,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373937346065651</v>
+        <v>1.345118773932238</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.548617088524931</v>
@@ -3690,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.386385449196732</v>
+        <v>1.357344963725108</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.568409461825981</v>
@@ -3779,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.421532782324371</v>
+        <v>1.386424752094706</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.430252442191721</v>
@@ -3868,7 +3832,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.43834001800379</v>
+        <v>1.411077441410803</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.552927968712746</v>
@@ -3957,7 +3921,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.483434450593867</v>
+        <v>1.450007703799781</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.542073092476646</v>
@@ -4046,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.464171102030233</v>
+        <v>1.42860523079185</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.346318984747047</v>
@@ -4135,7 +4099,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.479696160434162</v>
+        <v>1.447788757670164</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355234469158459</v>
@@ -4224,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.47230366853028</v>
+        <v>1.437359229959847</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.380864121549292</v>
@@ -4313,7 +4277,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.459646581335068</v>
+        <v>1.423150018894902</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.459381199036212</v>
@@ -4402,7 +4366,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463512289003381</v>
+        <v>1.42537176012635</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.560014259558355</v>
@@ -4491,7 +4455,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457958723706934</v>
+        <v>1.412896079441952</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.358656436533317</v>
@@ -4580,7 +4544,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442826420147327</v>
+        <v>1.403087401988629</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.548176336205811</v>
@@ -4669,7 +4633,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.469879778166351</v>
+        <v>1.421698912505921</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.31394434545377</v>
@@ -4758,7 +4722,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.464913187348231</v>
+        <v>1.42451028975415</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.637998246746217</v>
@@ -4847,7 +4811,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.46517012256068</v>
+        <v>1.42259187042987</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.417105320338815</v>
@@ -4936,7 +4900,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.504070378210854</v>
+        <v>1.455482048226023</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.425942729947525</v>
@@ -5025,7 +4989,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.496655242983205</v>
+        <v>1.443698565262733</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.565937646044715</v>
@@ -5114,7 +5078,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.487673715943733</v>
+        <v>1.438249649620875</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.394711352526986</v>
@@ -5203,7 +5167,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478413658864846</v>
+        <v>1.423405616695505</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.574649568394503</v>
@@ -5292,7 +5256,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.486161437378799</v>
+        <v>1.427334195579916</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.239533476428241</v>
@@ -5381,7 +5345,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.486854583942038</v>
+        <v>1.426117776450107</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.467158558247083</v>
@@ -5470,7 +5434,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.479182295434133</v>
+        <v>1.406402626951151</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.601646020582221</v>
@@ -5559,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.485315581226553</v>
+        <v>1.416382124454715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.645732106228108</v>
@@ -5648,7 +5612,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.480631122100491</v>
+        <v>1.416733519849702</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.413139624732088</v>
@@ -5737,7 +5701,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.478824703837038</v>
+        <v>1.415191975904291</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.391651349437455</v>
@@ -5826,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.478292418422057</v>
+        <v>1.416753160107478</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.41791549015634</v>
@@ -5915,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.471566245298653</v>
+        <v>1.409888396456507</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.491903140162057</v>
@@ -6004,7 +5968,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.4590128030948</v>
+        <v>1.392262769450451</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.356102185223714</v>
@@ -6093,7 +6057,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.460280042022436</v>
+        <v>1.394433691152801</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.422199862223031</v>
@@ -6182,7 +6146,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.442468569544187</v>
+        <v>1.375725895339995</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.514679918199252</v>
@@ -6271,7 +6235,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.444962190485625</v>
+        <v>1.384732977799779</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.357579858334982</v>
@@ -6360,7 +6324,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.464718120359209</v>
+        <v>1.397300457494493</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.343270647067885</v>
@@ -6449,7 +6413,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.466799403423457</v>
+        <v>1.39606778241775</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.558691504832556</v>
@@ -6538,7 +6502,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.465321142840912</v>
+        <v>1.399147292247338</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.469604227717235</v>
@@ -6627,7 +6591,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.449861793003408</v>
+        <v>1.389484478675755</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.52988921023242</v>
@@ -6716,7 +6680,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.469430600651577</v>
+        <v>1.40845567185733</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.347101002280438</v>
@@ -6805,7 +6769,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.477336936092704</v>
+        <v>1.420360854444139</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.430143176216061</v>
@@ -6894,7 +6858,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499129426536454</v>
+        <v>1.437002211876016</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.519564423605901</v>
@@ -6983,7 +6947,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.474816577589137</v>
+        <v>1.422151289225619</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.490653723664066</v>
@@ -7072,7 +7036,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.494115071089505</v>
+        <v>1.442058667855421</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.527196614028562</v>
@@ -7161,7 +7125,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49690270689408</v>
+        <v>1.446657796436365</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.396894356478036</v>
@@ -7250,7 +7214,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.522734769577649</v>
+        <v>1.470119858210237</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.485629959379914</v>
@@ -7339,7 +7303,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.524943293084662</v>
+        <v>1.474939088913547</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.304831397978132</v>
@@ -7428,7 +7392,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515962864145127</v>
+        <v>1.457148546945033</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.476118924988937</v>
@@ -7517,7 +7481,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.539864509013665</v>
+        <v>1.473356329312574</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.439725466958007</v>
@@ -7606,7 +7570,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542692315720642</v>
+        <v>1.476776379238336</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.449197725911904</v>
@@ -7892,7 +7856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.404314967075162</v>
+        <v>1.402077942771617</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.611745612235766</v>
@@ -7981,7 +7945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.406239055743237</v>
+        <v>1.400748629117314</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.534682075777769</v>
@@ -8070,7 +8034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.406182341765745</v>
+        <v>1.40006177023724</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.525642102156101</v>
@@ -8159,7 +8123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.400237349432556</v>
+        <v>1.396101156270723</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.441865930456874</v>
@@ -8248,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.397874262323876</v>
+        <v>1.39270489546683</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.488450533944059</v>
@@ -8337,7 +8301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.402769601689016</v>
+        <v>1.400933025356285</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.41619333783424</v>
@@ -8426,7 +8390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.403336623486212</v>
+        <v>1.407008923849423</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.553977111729877</v>
@@ -8515,7 +8479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.41221947109145</v>
+        <v>1.413415476547636</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.521111112219893</v>
@@ -8604,7 +8568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.423944009097835</v>
+        <v>1.418690899261281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.353740049045115</v>
@@ -8693,7 +8657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465917782031966</v>
+        <v>1.46104349720197</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.279853409997472</v>
@@ -8782,7 +8746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.481318693822911</v>
+        <v>1.467477416033108</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.589272932387989</v>
@@ -8871,7 +8835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.482566140327318</v>
+        <v>1.465964527519126</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.558597146543378</v>
@@ -8960,7 +8924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.478798087806811</v>
+        <v>1.466105370230639</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.51078750354012</v>
@@ -9049,7 +9013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.492882975438757</v>
+        <v>1.469156160753963</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.536210673126631</v>
@@ -9138,7 +9102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.483281641047474</v>
+        <v>1.461602057778839</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.618284626596212</v>
@@ -9227,7 +9191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491500366624545</v>
+        <v>1.463554415714084</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.668207044621034</v>
@@ -9316,7 +9280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.490748641117851</v>
+        <v>1.468229403633305</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.893932147376343</v>
@@ -9405,7 +9369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.503023967998922</v>
+        <v>1.479630647724532</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.678553880915003</v>
@@ -9494,7 +9458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.521710158089034</v>
+        <v>1.493619246230087</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.685891544611364</v>
@@ -9583,7 +9547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526339861713934</v>
+        <v>1.493589328257972</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.880593599321492</v>
@@ -9672,7 +9636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.530268644623796</v>
+        <v>1.498919190825682</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.736287222918777</v>
@@ -9761,7 +9725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525128200392299</v>
+        <v>1.487675495860765</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.629492638359047</v>
@@ -9850,7 +9814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533158664763707</v>
+        <v>1.488693048649454</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.452360087040431</v>
@@ -9939,7 +9903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.530771915317387</v>
+        <v>1.486691128284847</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.698875234702679</v>
@@ -10028,7 +9992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.526915299579225</v>
+        <v>1.481726902215308</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.76823462529959</v>
@@ -10117,7 +10081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.54870048714676</v>
+        <v>1.50571440476498</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.073147006206672</v>
@@ -10206,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.546776974780054</v>
+        <v>1.507424862936314</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.219594731068125</v>
@@ -10295,7 +10259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.559259200467298</v>
+        <v>1.518167816899265</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.748662052412376</v>
@@ -10384,7 +10348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.565059153482464</v>
+        <v>1.52063146601503</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.854440905576793</v>
@@ -10473,7 +10437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565310369373131</v>
+        <v>1.522639008747055</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.732209050297287</v>
@@ -10562,7 +10526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.566057862964588</v>
+        <v>1.524219762136443</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.66105828552696</v>
@@ -10651,7 +10615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569284977059376</v>
+        <v>1.529022699753736</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.870555565233267</v>
@@ -10740,7 +10704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.556615847542673</v>
+        <v>1.519063288947796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.953481528251529</v>
@@ -10829,7 +10793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.56829634416438</v>
+        <v>1.532477709049815</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.935260308006317</v>
@@ -10918,7 +10882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.57170735786801</v>
+        <v>1.537181329071462</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.72342023345142</v>
@@ -11007,7 +10971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582053553565868</v>
+        <v>1.542295628225144</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.025651668880947</v>
@@ -11096,7 +11060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.594270971096044</v>
+        <v>1.556658363995264</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.898977225926621</v>
@@ -11185,7 +11149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.593709414308838</v>
+        <v>1.562987622480176</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.786241749871962</v>
@@ -11274,7 +11238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606039907998847</v>
+        <v>1.575331173489441</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.806150876127536</v>
@@ -11363,7 +11327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.610202651554414</v>
+        <v>1.577211098197293</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.659301343629995</v>
@@ -11452,7 +11416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.618565979527269</v>
+        <v>1.583190157977297</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.189802201175503</v>
@@ -11541,7 +11505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.602930181627662</v>
+        <v>1.567739643957419</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.017238927847354</v>
@@ -11630,7 +11594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.611463026178646</v>
+        <v>1.575164322635418</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.921148214090707</v>
@@ -11719,7 +11683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.615812840894952</v>
+        <v>1.574491295206176</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.897449955163975</v>
@@ -11808,7 +11772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.633545135805594</v>
+        <v>1.590549603084341</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.067166609257173</v>
@@ -11897,7 +11861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63957435746505</v>
+        <v>1.592593971494328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.657797971874825</v>
@@ -11986,7 +11950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.639403354489542</v>
+        <v>1.581011782036293</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.118006447312776</v>
@@ -12075,7 +12039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.650575600737602</v>
+        <v>1.583208157033438</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.98995239597493</v>
@@ -12164,7 +12128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.65261076000203</v>
+        <v>1.585230498482274</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.768603647886029</v>
@@ -12450,7 +12414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.682149176049652</v>
+        <v>1.603489035213102</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.754632208462916</v>
@@ -12539,7 +12503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.694356560047896</v>
+        <v>1.612065736866129</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.836915390928152</v>
@@ -12628,7 +12592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.689955042442953</v>
+        <v>1.614564025960173</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.740412075647563</v>
@@ -12717,7 +12681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701654605659789</v>
+        <v>1.630134593065357</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.700435122360508</v>
@@ -12806,7 +12770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.705158444341922</v>
+        <v>1.636585365102712</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.891652492685</v>
@@ -12895,7 +12859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.697718482725638</v>
+        <v>1.630546324480432</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.824034340703478</v>
@@ -12984,7 +12948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.697603854625969</v>
+        <v>1.635312586678727</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.668053281752847</v>
@@ -13073,7 +13037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.70211912221936</v>
+        <v>1.641508728085644</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.816992386356591</v>
@@ -13162,7 +13126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.705267483315401</v>
+        <v>1.639657682718388</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.467391484703891</v>
@@ -13251,7 +13215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.711476780871092</v>
+        <v>1.642548595906073</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.616521648469991</v>
@@ -13340,7 +13304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.707603407183617</v>
+        <v>1.631030412871937</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.478329416199795</v>
@@ -13429,7 +13393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.702154593901788</v>
+        <v>1.607704940488004</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.610619998334154</v>
@@ -13518,7 +13482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.705200167965665</v>
+        <v>1.604144891713934</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.869798513399125</v>
@@ -13607,7 +13571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707792053399903</v>
+        <v>1.594225648963175</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.146248123259924</v>
@@ -13696,7 +13660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.71312425908004</v>
+        <v>1.601293593278049</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.388761762539911</v>
@@ -13785,7 +13749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.71267865920446</v>
+        <v>1.594588022433441</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.638934818464866</v>
@@ -13874,7 +13838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.71536975836796</v>
+        <v>1.600663538052799</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.484463907906552</v>
@@ -13963,7 +13927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.720512746471469</v>
+        <v>1.605880479164112</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.663827762412901</v>
@@ -14052,7 +14016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.715670096924892</v>
+        <v>1.601661540221383</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.60802307871881</v>
@@ -14141,7 +14105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715412817422349</v>
+        <v>1.600614303172736</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.436165496864906</v>
@@ -14230,7 +14194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.715796191657839</v>
+        <v>1.605516791245839</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.128539708741995</v>
@@ -14319,7 +14283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.708695426893547</v>
+        <v>1.594913522999884</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.555819810984202</v>
@@ -14408,7 +14372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.71521879744387</v>
+        <v>1.600579026412617</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.165325887605992</v>
@@ -14497,7 +14461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.705988948087068</v>
+        <v>1.590190029495303</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.716500644549231</v>
@@ -14586,7 +14550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.701938573902366</v>
+        <v>1.585063662781167</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.61785107247677</v>
@@ -14675,7 +14639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.711971113308876</v>
+        <v>1.603248294527761</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.939898817327462</v>
@@ -14764,7 +14728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712692031288246</v>
+        <v>1.617364430372665</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.472190811448022</v>
@@ -14853,7 +14817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.707325227792433</v>
+        <v>1.61546161118219</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.285893667015312</v>
@@ -14942,7 +14906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.698493221370339</v>
+        <v>1.605726711642548</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.493555050611128</v>
@@ -15031,7 +14995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693628274777952</v>
+        <v>1.603438466703669</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.500065147266637</v>
@@ -15120,7 +15084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.686232721367644</v>
+        <v>1.597473336899833</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.351576118475115</v>
@@ -15209,7 +15173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.676850694311913</v>
+        <v>1.583030581730364</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.668828093638744</v>
@@ -15298,7 +15262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.664051637638772</v>
+        <v>1.568593655311041</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.40970030681062</v>
@@ -15387,7 +15351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.668701151908225</v>
+        <v>1.576794123381226</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.419139740627086</v>
@@ -15476,7 +15440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679380523370317</v>
+        <v>1.58095383480026</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.233366928927451</v>
@@ -15565,7 +15529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676427206423596</v>
+        <v>1.575096939898137</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.248298377761834</v>
@@ -15654,7 +15618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.682870314884852</v>
+        <v>1.586970416954259</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.109487799896686</v>
@@ -15743,7 +15707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.681306057814978</v>
+        <v>1.589157655552339</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.50555531661118</v>
@@ -15832,7 +15796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.687183499128245</v>
+        <v>1.594566106233234</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.333968674783363</v>
@@ -15921,7 +15885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681819300539106</v>
+        <v>1.587393241122497</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.964315434564894</v>
@@ -16010,7 +15974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.68385801586834</v>
+        <v>1.584379021108911</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.872707093600706</v>
@@ -16099,7 +16063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688939942633369</v>
+        <v>1.585631981597819</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.776007769823451</v>
@@ -16188,7 +16152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.695579526603154</v>
+        <v>1.587806396256288</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.794819599233918</v>
@@ -16277,7 +16241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.708408343204284</v>
+        <v>1.601497067638411</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.973406818049244</v>
@@ -16366,7 +16330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.715496665980572</v>
+        <v>1.61192275449708</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.521543920247887</v>
@@ -16455,7 +16419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721639477714234</v>
+        <v>1.621163898460892</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.887057196018657</v>
@@ -16544,7 +16508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.728158236592422</v>
+        <v>1.625627047831836</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.04930234911888</v>
@@ -16633,7 +16597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.740789495456326</v>
+        <v>1.626865489275005</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.295827388759329</v>
@@ -16722,7 +16686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.739556412905092</v>
+        <v>1.628057990631432</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.029410326318923</v>
@@ -17008,7 +16972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.701228719263396</v>
+        <v>1.626453409383668</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.578297609297358</v>
@@ -17097,7 +17061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.716098368049024</v>
+        <v>1.638042080672539</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.178782021689892</v>
@@ -17186,7 +17150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.725946231381549</v>
+        <v>1.652857923301024</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.076357911074021</v>
@@ -17275,7 +17239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736954023748321</v>
+        <v>1.665445688768169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.536587009553249</v>
@@ -17364,7 +17328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.752255084691649</v>
+        <v>1.677305647128459</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.378851381029511</v>
@@ -17453,7 +17417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.751354460066192</v>
+        <v>1.679195393109101</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.54348732717119</v>
@@ -17542,7 +17506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.758989264796132</v>
+        <v>1.698302629730841</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.584892899324282</v>
@@ -17631,7 +17595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.755997388075762</v>
+        <v>1.687453005540873</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.177388508615064</v>
@@ -17720,7 +17684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.738872295057993</v>
+        <v>1.67203110198879</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.526139205387106</v>
@@ -17809,7 +17773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.740349033476692</v>
+        <v>1.671735118624281</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.528371868659225</v>
@@ -17898,7 +17862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.730301087620302</v>
+        <v>1.643462452453395</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.386081158373071</v>
@@ -17987,7 +17951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.716393433653019</v>
+        <v>1.610769887342016</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.033905221854533</v>
@@ -18076,7 +18040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.716643146787577</v>
+        <v>1.609845984877404</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.342668683313101</v>
@@ -18165,7 +18129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.728162575727014</v>
+        <v>1.614111595108233</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.302996122866663</v>
@@ -18254,7 +18218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.727185291594427</v>
+        <v>1.614949311931006</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.265806641101751</v>
@@ -18343,7 +18307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.723741478128705</v>
+        <v>1.603345682000986</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.202209648013042</v>
@@ -18432,7 +18396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718527284364951</v>
+        <v>1.596770699646615</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.012213968366996</v>
@@ -18521,7 +18485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.712830363552987</v>
+        <v>1.589739946118443</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.100180492816356</v>
@@ -18610,7 +18574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717414816972269</v>
+        <v>1.591516142400666</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.272170029090242</v>
@@ -18699,7 +18663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.72754413860085</v>
+        <v>1.59955189118938</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.190948229064275</v>
@@ -18788,7 +18752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.722902237581039</v>
+        <v>1.597222856684205</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.060179715865124</v>
@@ -18877,7 +18841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.721602819078125</v>
+        <v>1.589942694019812</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.332445878885645</v>
@@ -18966,7 +18930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.723582788879688</v>
+        <v>1.606729872632181</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.88641952108775</v>
@@ -19055,7 +19019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.725075262392685</v>
+        <v>1.601503999827188</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.151659374775459</v>
@@ -19144,7 +19108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.724296580711885</v>
+        <v>1.598151312428666</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.341937252406233</v>
@@ -19233,7 +19197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.728085256846422</v>
+        <v>1.625916716083412</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.93718384638716</v>
@@ -19322,7 +19286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.735324185709873</v>
+        <v>1.642527199579017</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.128399814534067</v>
@@ -19411,7 +19375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.724712118520895</v>
+        <v>1.63318704965337</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.382663360277915</v>
@@ -19500,7 +19464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.727859473005211</v>
+        <v>1.637402633763164</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.04804422692532</v>
@@ -19589,7 +19553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726927821651192</v>
+        <v>1.631875609445894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.521323433038225</v>
@@ -19678,7 +19642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.716535308193243</v>
+        <v>1.625789104136218</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.021488243167374</v>
@@ -19767,7 +19731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.709485388266077</v>
+        <v>1.621324866023275</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.057862432508439</v>
@@ -19856,7 +19820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.702147600902207</v>
+        <v>1.61670236172407</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.651622156479081</v>
@@ -19945,7 +19909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.699096729476772</v>
+        <v>1.616602358418013</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.761150694309416</v>
@@ -20034,7 +19998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.698253723686597</v>
+        <v>1.612847388112961</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.795430231834441</v>
@@ -20123,7 +20087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699592019461657</v>
+        <v>1.608915515722995</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.907491779561684</v>
@@ -20212,7 +20176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.703073621913016</v>
+        <v>1.612527851015568</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.484798642267598</v>
@@ -20301,7 +20265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710040141207203</v>
+        <v>1.617835856017183</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.933532331681358</v>
@@ -20390,7 +20354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716614853884754</v>
+        <v>1.629861234579507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.493794596701982</v>
@@ -20479,7 +20443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.7138401054893</v>
+        <v>1.630367546121431</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.447800288070002</v>
@@ -20568,7 +20532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.715861733743991</v>
+        <v>1.625399014118966</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.732099695889139</v>
@@ -20657,7 +20621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.715348118429439</v>
+        <v>1.623389195433393</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.798306921851475</v>
@@ -20746,7 +20710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.729240915779856</v>
+        <v>1.636528431182317</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.801023442269671</v>
@@ -20835,7 +20799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.729392583949647</v>
+        <v>1.621021890890112</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.596961193264583</v>
@@ -20924,7 +20888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.739602530836064</v>
+        <v>1.633460760263636</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.277278379504532</v>
@@ -21013,7 +20977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.742386463730864</v>
+        <v>1.629981595536304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.754103828355779</v>
@@ -21102,7 +21066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.738086989747669</v>
+        <v>1.621714840169896</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.726161128585393</v>
@@ -21191,7 +21155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.750404218636363</v>
+        <v>1.622172379509141</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.826922925215534</v>
@@ -21280,7 +21244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.749376860616735</v>
+        <v>1.622823000687811</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.384565705102434</v>
@@ -21566,7 +21530,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.362918103556385</v>
+        <v>1.373130104644793</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.156882854546011</v>
@@ -21655,7 +21619,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.369745603660699</v>
+        <v>1.378351312941071</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.253051621805031</v>
@@ -21744,7 +21708,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.368600774200693</v>
+        <v>1.378801216168613</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.142259718113249</v>
@@ -21833,7 +21797,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.365227053596937</v>
+        <v>1.374595592446455</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.079749513314618</v>
@@ -21922,7 +21886,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.37775608118316</v>
+        <v>1.386102652310393</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.145151872298138</v>
@@ -22011,7 +21975,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.392885539088516</v>
+        <v>1.398842316935899</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.072273887371471</v>
@@ -22100,7 +22064,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.396117771199722</v>
+        <v>1.401615262527888</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.152753218243023</v>
@@ -22189,7 +22153,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.399350728745759</v>
+        <v>1.404787129232886</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.175110129268599</v>
@@ -22278,7 +22242,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.415266238690501</v>
+        <v>1.423332556233277</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.169623399324257</v>
@@ -22367,7 +22331,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.447096940955904</v>
+        <v>1.453592819314233</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.00728200070771</v>
@@ -22456,7 +22420,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.471658243757811</v>
+        <v>1.466954793420455</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.158170187739699</v>
@@ -22545,7 +22509,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.540136691209026</v>
+        <v>1.512008187181192</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.575909731479148</v>
@@ -22634,7 +22598,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.552230599673303</v>
+        <v>1.519970895232973</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.560809242042845</v>
@@ -22723,7 +22687,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.58906201654571</v>
+        <v>1.55071783803824</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.753031025832282</v>
@@ -22812,7 +22776,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592887618944188</v>
+        <v>1.55227349859597</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.002577410840616</v>
@@ -22901,7 +22865,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.598705824065735</v>
+        <v>1.555807623687618</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.306308608022976</v>
@@ -22990,7 +22954,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59201285255684</v>
+        <v>1.551648026028372</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.078812403795526</v>
@@ -23079,7 +23043,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60518831542738</v>
+        <v>1.565984843881393</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.118081641788243</v>
@@ -23168,7 +23132,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.612908282194224</v>
+        <v>1.563852848667542</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.270683435505777</v>
@@ -23257,7 +23221,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.620486035721026</v>
+        <v>1.566613316917043</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.130931655183198</v>
@@ -23346,7 +23310,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628887104934658</v>
+        <v>1.579150541098327</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.20825876882081</v>
@@ -23435,7 +23399,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632776542925954</v>
+        <v>1.582543311849233</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.040279201364618</v>
@@ -23524,7 +23488,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.628236141002852</v>
+        <v>1.577046302534819</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.89130489818015</v>
@@ -23613,7 +23577,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627220306863257</v>
+        <v>1.564978067918411</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.291385581056573</v>
@@ -23702,7 +23666,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625644240285141</v>
+        <v>1.567820018471095</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.864105308523688</v>
@@ -23791,7 +23755,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.611548554312385</v>
+        <v>1.563259841998057</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.846849008456148</v>
@@ -23880,7 +23844,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.604811222819589</v>
+        <v>1.578359440724727</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.737290327771032</v>
@@ -23969,7 +23933,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609274479939872</v>
+        <v>1.583449621124945</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.814690128223157</v>
@@ -24058,7 +24022,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613892373728504</v>
+        <v>1.587084274512901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.684419147496688</v>
@@ -24147,7 +24111,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.620417785259695</v>
+        <v>1.590298801491675</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.696662251981372</v>
@@ -24236,7 +24200,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.620905385670874</v>
+        <v>1.586777450455641</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.775591889300228</v>
@@ -24325,7 +24289,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625513897100404</v>
+        <v>1.596186692877073</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.847870228106089</v>
@@ -24414,7 +24378,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609345985620378</v>
+        <v>1.583191384555656</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.801702506262866</v>
@@ -24503,7 +24467,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616229240790054</v>
+        <v>1.59701566171285</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.730198610705987</v>
@@ -24592,7 +24556,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.613541669498276</v>
+        <v>1.590430757093171</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.913593357114631</v>
@@ -24681,7 +24645,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600656881477691</v>
+        <v>1.574391630052556</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.793518691455184</v>
@@ -24770,7 +24734,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5895657983514</v>
+        <v>1.56537121886493</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.778210422578479</v>
@@ -24859,7 +24823,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.580387786322307</v>
+        <v>1.562054992547167</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.899465332011389</v>
@@ -24948,7 +24912,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.581246946566075</v>
+        <v>1.567390103524332</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.891618646352757</v>
@@ -25037,7 +25001,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.591985456590607</v>
+        <v>1.57368776396827</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.897956959197999</v>
@@ -25126,7 +25090,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60414726506017</v>
+        <v>1.585915163752162</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.076874925615937</v>
@@ -25215,7 +25179,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.602945788692997</v>
+        <v>1.582615506160016</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.292591101971797</v>
@@ -25304,7 +25268,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61251494131833</v>
+        <v>1.591173174354964</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.154104690930993</v>
@@ -25393,7 +25357,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.605102583656615</v>
+        <v>1.577408258946994</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.305561616807912</v>
@@ -25482,7 +25446,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609024510775806</v>
+        <v>1.588032977343534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.156757723879308</v>
@@ -25571,7 +25535,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604141088916025</v>
+        <v>1.583551296155696</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.982203819431788</v>
@@ -25660,7 +25624,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599055039092193</v>
+        <v>1.572921060772725</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.14415585712032</v>
@@ -25749,7 +25713,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.609518775455169</v>
+        <v>1.574368035704228</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.36406758616201</v>
@@ -25838,7 +25802,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615433730025845</v>
+        <v>1.580463952496012</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.99200519531971</v>
@@ -26124,7 +26088,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.365764798847061</v>
+        <v>1.329853651637214</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.371394290234361</v>
@@ -26213,7 +26177,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.374126125710422</v>
+        <v>1.340478293169204</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.484097435387477</v>
@@ -26302,7 +26266,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.382071724409392</v>
+        <v>1.351260517868223</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.453884812887886</v>
@@ -26391,7 +26355,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.375316602352164</v>
+        <v>1.347359429315744</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.46117501348717</v>
@@ -26480,7 +26444,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.392479085007736</v>
+        <v>1.365001131224841</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.487184956152649</v>
@@ -26569,7 +26533,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.424857565641518</v>
+        <v>1.39236554332179</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.508439217291866</v>
@@ -26658,7 +26622,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.441329527388296</v>
+        <v>1.414256049583739</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.542879720670935</v>
@@ -26747,7 +26711,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.473548526355325</v>
+        <v>1.437494380102777</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.433615437430339</v>
@@ -26836,7 +26800,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.448122895507667</v>
+        <v>1.415288444794411</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.383794079108453</v>
@@ -26925,7 +26889,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462039632132069</v>
+        <v>1.43213647243438</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.347487159176733</v>
@@ -27014,7 +26978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.448502087650171</v>
+        <v>1.41529337813599</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.528967360473942</v>
@@ -27103,7 +27067,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.43533401652767</v>
+        <v>1.39955181435837</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.340076709545545</v>
@@ -27192,7 +27156,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.436051964729033</v>
+        <v>1.401360492147633</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.616721459550485</v>
@@ -27281,7 +27245,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.449796207023474</v>
+        <v>1.412761994292472</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.486075920987539</v>
@@ -27370,7 +27334,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.445708343068112</v>
+        <v>1.409342812605027</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.637614876744632</v>
@@ -27459,7 +27423,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.464692174493592</v>
+        <v>1.416106506670346</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.263747740680597</v>
@@ -27548,7 +27512,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.453662137877242</v>
+        <v>1.411015664133787</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.415499645462946</v>
@@ -27637,7 +27601,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459389088982023</v>
+        <v>1.41677455557891</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.375898295478791</v>
@@ -27726,7 +27690,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.496068366053944</v>
+        <v>1.445736458149451</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.293538369681973</v>
@@ -27815,7 +27779,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491596189276444</v>
+        <v>1.439045089344289</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.384994164543365</v>
@@ -27904,7 +27868,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.491624589689274</v>
+        <v>1.448054656621208</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.29158985026769</v>
@@ -27993,7 +27957,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.484996420423717</v>
+        <v>1.438689546415047</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.564372458560782</v>
@@ -28082,7 +28046,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.49438295074102</v>
+        <v>1.445681048204925</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.134371713080129</v>
@@ -28171,7 +28135,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501330735215104</v>
+        <v>1.448371533592497</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.407533203188321</v>
@@ -28260,7 +28224,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488583859131745</v>
+        <v>1.432348260234801</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.523364113747679</v>
@@ -28349,7 +28313,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495365345324645</v>
+        <v>1.442476352078269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.637983159627816</v>
@@ -28438,7 +28402,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.49715217038069</v>
+        <v>1.455327777486609</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.364594061716319</v>
@@ -28527,7 +28491,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.496566331279264</v>
+        <v>1.448412902640422</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.303588049802352</v>
@@ -28616,7 +28580,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.494650424968623</v>
+        <v>1.446187495010723</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.330401414423906</v>
@@ -28705,7 +28669,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484968937861235</v>
+        <v>1.434466949759732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.475246396181267</v>
@@ -28794,7 +28758,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.477367352175392</v>
+        <v>1.424460741904915</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.305885011674045</v>
@@ -28883,7 +28847,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.482426653453904</v>
+        <v>1.431266307282343</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.610187725789835</v>
@@ -28972,7 +28936,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.456292818362107</v>
+        <v>1.408099556520374</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.473805176519251</v>
@@ -29061,7 +29025,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.453817831913881</v>
+        <v>1.412607936109155</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.327481161170296</v>
@@ -29150,7 +29114,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.466997322133508</v>
+        <v>1.420031257549903</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.333113425301355</v>
@@ -29239,7 +29203,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.468214799371783</v>
+        <v>1.411786829123683</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.566724889560968</v>
@@ -29328,7 +29292,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.458897489636487</v>
+        <v>1.402495166580497</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.491865706678902</v>
@@ -29417,7 +29381,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.447816062756148</v>
+        <v>1.392274871742341</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.538935919014688</v>
@@ -29506,7 +29470,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.463699399133537</v>
+        <v>1.411675686110063</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.43049328337589</v>
@@ -29595,7 +29559,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.483227890538095</v>
+        <v>1.428655991667942</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.46641745993277</v>
@@ -29684,7 +29648,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505412027815825</v>
+        <v>1.447662135894488</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.482300463462418</v>
@@ -29773,7 +29737,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.493226547310508</v>
+        <v>1.439431084821877</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.538259411131333</v>
@@ -29862,7 +29826,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.512079794814913</v>
+        <v>1.463027852961225</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.509571224222422</v>
@@ -29951,7 +29915,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.501033378330885</v>
+        <v>1.446017780712004</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.445307739552966</v>
@@ -30040,7 +30004,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.531739445975077</v>
+        <v>1.477286913242748</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.586061695417432</v>
@@ -30129,7 +30093,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.525541394722512</v>
+        <v>1.476167261665708</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.37334582318387</v>
@@ -30218,7 +30182,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.523142698201122</v>
+        <v>1.468097002513565</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.545023226345139</v>
@@ -30307,7 +30271,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547554874927813</v>
+        <v>1.479937409749264</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.557518448726424</v>
@@ -30396,7 +30360,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.552235227005578</v>
+        <v>1.480128957666323</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.275080055637925</v>
